--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2760.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2760.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164036829177463</v>
+        <v>1.823505401611328</v>
       </c>
       <c r="B1">
-        <v>2.424288072884234</v>
+        <v>2.02829384803772</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.213552474975586</v>
       </c>
       <c r="D1">
-        <v>2.369198624799728</v>
+        <v>3.24401330947876</v>
       </c>
       <c r="E1">
-        <v>1.223926232666491</v>
+        <v>1.884402513504028</v>
       </c>
     </row>
   </sheetData>
